--- a/Documents/人海大事记.xlsx
+++ b/Documents/人海大事记.xlsx
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -489,6 +489,12 @@
       <c r="A4" s="3">
         <v>41656</v>
       </c>
+      <c r="B4">
+        <v>2901</v>
+      </c>
+      <c r="C4">
+        <v>125</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3">
@@ -516,15 +522,103 @@
       <c r="A7" s="3">
         <v>41659</v>
       </c>
+      <c r="B7">
+        <v>3880</v>
+      </c>
+      <c r="C7">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3">
         <v>41660</v>
       </c>
+      <c r="B8">
+        <v>4070</v>
+      </c>
+      <c r="C8">
+        <v>176</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3">
         <v>41661</v>
+      </c>
+      <c r="B9">
+        <v>4240</v>
+      </c>
+      <c r="C9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>41662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>41663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>41664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>41665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>41666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
+        <v>41667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
+        <v>41668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3">
+        <v>41669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3">
+        <v>41670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3">
+        <v>41672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3">
+        <v>41673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3">
+        <v>41674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3">
+        <v>41675</v>
       </c>
     </row>
   </sheetData>
